--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3592.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3592.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.615923146567833</v>
+        <v>1.116840481758118</v>
       </c>
       <c r="B1">
-        <v>4.000425082792973</v>
+        <v>3.649934768676758</v>
       </c>
       <c r="C1">
-        <v>4.408488583289385</v>
+        <v>4.4692063331604</v>
       </c>
       <c r="D1">
-        <v>1.279533106779277</v>
+        <v>1.877953171730042</v>
       </c>
       <c r="E1">
-        <v>0.8506678566953132</v>
+        <v>1.304700016975403</v>
       </c>
     </row>
   </sheetData>
